--- a/data_wrangling/data_source/panda_01_write_excel_02.xlsx
+++ b/data_wrangling/data_source/panda_01_write_excel_02.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="new" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data_wrangling/data_source/panda_01_write_excel_02.xlsx
+++ b/data_wrangling/data_source/panda_01_write_excel_02.xlsx
@@ -7,7 +7,8 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="new" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="new3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="new4" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,4 +580,165 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>class</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Nasa</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lin</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>40</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nancy</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>famale</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>37</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>XiangYu</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>famale</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>35</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>郑林</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3-2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/data_wrangling/data_source/panda_01_write_excel_02.xlsx
+++ b/data_wrangling/data_source/panda_01_write_excel_02.xlsx
@@ -434,6 +434,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="20"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
